--- a/assets/sites_bulk_upload_template.xlsx
+++ b/assets/sites_bulk_upload_template.xlsx
@@ -1,99 +1,118 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\project\assets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F649AA-7404-4A30-AC01-7AEF59EE56A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sites Template" sheetId="1" r:id="rId1"/>
+    <sheet name="Sites Template" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
             <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <u val="none"/>
           </rPr>
-          <t>Required field. Must be unique.</t>
+          <t xml:space="preserve">Required field. Must be unique.</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
             <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <u val="none"/>
           </rPr>
-          <t>Required field. Complete address.</t>
+          <t xml:space="preserve">Required field. Complete address.</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
             <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <u val="none"/>
           </rPr>
-          <t>Must match existing country in master data.</t>
+          <t xml:space="preserve">Must match existing country in master data.</t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
             <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <u val="none"/>
           </rPr>
-          <t>Must match existing state in master data.</t>
+          <t xml:space="preserve">Must match existing state in master data.</t>
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
             <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <u val="none"/>
           </rPr>
-          <t>Must match existing city in master data.</t>
+          <t xml:space="preserve">Must match existing city in master data.</t>
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
             <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <u val="none"/>
           </rPr>
-          <t>Date format: YYYY-MM-DD or DD/MM/YYYY</t>
+          <t xml:space="preserve">Date format: YYYY-MM-DD or DD/MM/YYYY</t>
         </r>
       </text>
     </comment>
@@ -102,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>Site ID</t>
   </si>
@@ -140,6 +159,15 @@
     <t>Remarks</t>
   </si>
   <si>
+    <t>SITE001</t>
+  </si>
+  <si>
+    <t>STORE001</t>
+  </si>
+  <si>
+    <t>123 Main Street, Business District</t>
+  </si>
+  <si>
     <t>India</t>
   </si>
   <si>
@@ -152,6 +180,12 @@
     <t>Andheri Branch</t>
   </si>
   <si>
+    <t>ABC Corporation</t>
+  </si>
+  <si>
+    <t>HDFC Bank</t>
+  </si>
+  <si>
     <t>PO2024001</t>
   </si>
   <si>
@@ -161,6 +195,15 @@
     <t>High priority installation</t>
   </si>
   <si>
+    <t>SITE002</t>
+  </si>
+  <si>
+    <t>STORE002</t>
+  </si>
+  <si>
+    <t>456 Commercial Road, IT Park</t>
+  </si>
+  <si>
     <t>Karnataka</t>
   </si>
   <si>
@@ -170,6 +213,12 @@
     <t>Whitefield Branch</t>
   </si>
   <si>
+    <t>XYZ Ltd</t>
+  </si>
+  <si>
+    <t>ICICI Bank</t>
+  </si>
+  <si>
     <t>PO2024002</t>
   </si>
   <si>
@@ -177,85 +226,31 @@
   </si>
   <si>
     <t>Standard installation</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Axis Bank</t>
-  </si>
-  <si>
-    <t>PO2024003</t>
-  </si>
-  <si>
-    <t>PO2024004</t>
-  </si>
-  <si>
-    <t>PO2024005</t>
-  </si>
-  <si>
-    <t>PO2024006</t>
-  </si>
-  <si>
-    <t>2024-01-21</t>
-  </si>
-  <si>
-    <t>2024-01-22</t>
-  </si>
-  <si>
-    <t>2024-01-23</t>
-  </si>
-  <si>
-    <t>2024-01-24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF111827"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -299,28 +294,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+  <cellXfs count="2">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -610,30 +592,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="41.133" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="31.707" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -671,237 +656,86 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
         <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" t="s">
         <v>34</v>
-      </c>
-      <c r="K6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <legacyDrawing r:id="rId_comments_vml1"/>
 </worksheet>
 </file>